--- a/Lab2/1150080068_CNPM1_TranMinhNhat_Lab2_PhanVungTuongDuong.xlsx
+++ b/Lab2/1150080068_CNPM1_TranMinhNhat_Lab2_PhanVungTuongDuong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KiemThuPhanMem\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801FA548-F5BB-4E30-9F6D-37A9CD5C4CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4E4F7E-75E9-43F0-B88D-AA6B22D79097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{B7AAED17-BA29-451C-9083-CF3266783875}"/>
   </bookViews>
